--- a/data/full_metadata.xlsx
+++ b/data/full_metadata.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="664">
   <si>
     <t xml:space="preserve">sample_id</t>
   </si>
@@ -550,6 +550,12 @@
     <t xml:space="preserve">SAMN44743395</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA1186132</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLANK-2</t>
   </si>
   <si>
@@ -568,6 +574,9 @@
     <t xml:space="preserve">SAMN44743396</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350264</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLANK-3</t>
   </si>
   <si>
@@ -586,6 +595,9 @@
     <t xml:space="preserve">SAMN44743397</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350253</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLANK-4</t>
   </si>
   <si>
@@ -604,6 +616,9 @@
     <t xml:space="preserve">SAMN44743398</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350242</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLANK-5</t>
   </si>
   <si>
@@ -622,6 +637,9 @@
     <t xml:space="preserve">SAMN44743399</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350231</t>
+  </si>
+  <si>
     <t xml:space="preserve">KI1B</t>
   </si>
   <si>
@@ -652,6 +670,9 @@
     <t xml:space="preserve">SAMN44743400</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350220</t>
+  </si>
+  <si>
     <t xml:space="preserve">KI1CS</t>
   </si>
   <si>
@@ -670,6 +691,9 @@
     <t xml:space="preserve">SAMN44743401</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350209</t>
+  </si>
+  <si>
     <t xml:space="preserve">KI2B</t>
   </si>
   <si>
@@ -685,6 +709,9 @@
     <t xml:space="preserve">SAMN44743402</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350198</t>
+  </si>
+  <si>
     <t xml:space="preserve">KI2CS</t>
   </si>
   <si>
@@ -700,6 +727,9 @@
     <t xml:space="preserve">SAMN44743403</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350187</t>
+  </si>
+  <si>
     <t xml:space="preserve">KI3B</t>
   </si>
   <si>
@@ -715,6 +745,9 @@
     <t xml:space="preserve">SAMN44743404</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350176</t>
+  </si>
+  <si>
     <t xml:space="preserve">KI3CS</t>
   </si>
   <si>
@@ -730,6 +763,9 @@
     <t xml:space="preserve">SAMN44743405</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350263</t>
+  </si>
+  <si>
     <t xml:space="preserve">KN1B</t>
   </si>
   <si>
@@ -751,6 +787,9 @@
     <t xml:space="preserve">SAMN44743406</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350262</t>
+  </si>
+  <si>
     <t xml:space="preserve">KN1CS</t>
   </si>
   <si>
@@ -766,6 +805,9 @@
     <t xml:space="preserve">SAMN44743407</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350261</t>
+  </si>
+  <si>
     <t xml:space="preserve">KN2B</t>
   </si>
   <si>
@@ -781,6 +823,9 @@
     <t xml:space="preserve">SAMN44743408</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350260</t>
+  </si>
+  <si>
     <t xml:space="preserve">KN2CS</t>
   </si>
   <si>
@@ -796,6 +841,9 @@
     <t xml:space="preserve">SAMN44743409</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350259</t>
+  </si>
+  <si>
     <t xml:space="preserve">KN3B</t>
   </si>
   <si>
@@ -811,6 +859,9 @@
     <t xml:space="preserve">SAMN44743410</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350258</t>
+  </si>
+  <si>
     <t xml:space="preserve">KN3CS</t>
   </si>
   <si>
@@ -826,6 +877,9 @@
     <t xml:space="preserve">SAMN44743411</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350257</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT1BP</t>
   </si>
   <si>
@@ -844,6 +898,9 @@
     <t xml:space="preserve">SAMN44743412</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350256</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT1BV</t>
   </si>
   <si>
@@ -859,6 +916,9 @@
     <t xml:space="preserve">SAMN44743413</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350255</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT1CSP</t>
   </si>
   <si>
@@ -874,6 +934,9 @@
     <t xml:space="preserve">SAMN44743414</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350254</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT1CSV</t>
   </si>
   <si>
@@ -889,6 +952,9 @@
     <t xml:space="preserve">SAMN44743415</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350252</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT2BP</t>
   </si>
   <si>
@@ -904,6 +970,9 @@
     <t xml:space="preserve">SAMN44743416</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350251</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT2BV</t>
   </si>
   <si>
@@ -919,6 +988,9 @@
     <t xml:space="preserve">SAMN44743417</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350250</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT2CSP</t>
   </si>
   <si>
@@ -934,6 +1006,9 @@
     <t xml:space="preserve">SAMN44743418</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350249</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT2CSV</t>
   </si>
   <si>
@@ -949,6 +1024,9 @@
     <t xml:space="preserve">SAMN44743419</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350248</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT3BP</t>
   </si>
   <si>
@@ -964,6 +1042,9 @@
     <t xml:space="preserve">SAMN44743420</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350247</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT3BV</t>
   </si>
   <si>
@@ -979,6 +1060,9 @@
     <t xml:space="preserve">SAMN44743421</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350246</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT3CSP</t>
   </si>
   <si>
@@ -994,6 +1078,9 @@
     <t xml:space="preserve">SAMN44743422</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350245</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT3CSV</t>
   </si>
   <si>
@@ -1009,6 +1096,9 @@
     <t xml:space="preserve">SAMN44743423</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350244</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mycobloom-1</t>
   </si>
   <si>
@@ -1024,6 +1114,9 @@
     <t xml:space="preserve">SAMN44743424</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350243</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mycobloom-2</t>
   </si>
   <si>
@@ -1039,6 +1132,9 @@
     <t xml:space="preserve">SAMN44743425</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mycobloom-3</t>
   </si>
   <si>
@@ -1054,6 +1150,9 @@
     <t xml:space="preserve">SAMN44743426</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350240</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mycobloom-4</t>
   </si>
   <si>
@@ -1069,6 +1168,9 @@
     <t xml:space="preserve">SAMN44743427</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350239</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mycobloom-5</t>
   </si>
   <si>
@@ -1084,6 +1186,9 @@
     <t xml:space="preserve">SAMN44743428</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350238</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC105A</t>
   </si>
   <si>
@@ -1099,6 +1204,9 @@
     <t xml:space="preserve">SAMN44743429</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350237</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC172</t>
   </si>
   <si>
@@ -1114,6 +1222,9 @@
     <t xml:space="preserve">SAMN44743430</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350236</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC175</t>
   </si>
   <si>
@@ -1129,6 +1240,9 @@
     <t xml:space="preserve">SAMN44743431</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350235</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEG-control-1</t>
   </si>
   <si>
@@ -1144,6 +1258,9 @@
     <t xml:space="preserve">SAMN44743432</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350234</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEG-control-2</t>
   </si>
   <si>
@@ -1159,6 +1276,9 @@
     <t xml:space="preserve">SAMN44743433</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350233</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEG-control-3</t>
   </si>
   <si>
@@ -1174,6 +1294,9 @@
     <t xml:space="preserve">SAMN44743434</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350232</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEG-control-4</t>
   </si>
   <si>
@@ -1189,6 +1312,9 @@
     <t xml:space="preserve">SAMN44743435</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350230</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEG-control-5</t>
   </si>
   <si>
@@ -1204,6 +1330,9 @@
     <t xml:space="preserve">SAMN44743436</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350229</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI1B</t>
   </si>
   <si>
@@ -1225,6 +1354,9 @@
     <t xml:space="preserve">SAMN44743437</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350228</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI1CS</t>
   </si>
   <si>
@@ -1240,6 +1372,9 @@
     <t xml:space="preserve">SAMN44743438</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350227</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI2B</t>
   </si>
   <si>
@@ -1255,6 +1390,9 @@
     <t xml:space="preserve">SAMN44743439</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350226</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI2CS</t>
   </si>
   <si>
@@ -1270,6 +1408,9 @@
     <t xml:space="preserve">SAMN44743440</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350225</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI3B</t>
   </si>
   <si>
@@ -1285,6 +1426,9 @@
     <t xml:space="preserve">SAMN44743441</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350224</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI3CS</t>
   </si>
   <si>
@@ -1300,6 +1444,9 @@
     <t xml:space="preserve">SAMN44743442</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350223</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN1B</t>
   </si>
   <si>
@@ -1315,6 +1462,9 @@
     <t xml:space="preserve">SAMN44743443</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350222</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN1CS</t>
   </si>
   <si>
@@ -1330,6 +1480,9 @@
     <t xml:space="preserve">SAMN44743444</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350221</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN2B</t>
   </si>
   <si>
@@ -1345,6 +1498,9 @@
     <t xml:space="preserve">SAMN44743445</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350219</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN2CS</t>
   </si>
   <si>
@@ -1360,6 +1516,9 @@
     <t xml:space="preserve">SAMN44743446</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350218</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN3B</t>
   </si>
   <si>
@@ -1375,6 +1534,9 @@
     <t xml:space="preserve">SAMN44743447</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350217</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN3CS</t>
   </si>
   <si>
@@ -1390,6 +1552,9 @@
     <t xml:space="preserve">SAMN44743448</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350216</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST1BP</t>
   </si>
   <si>
@@ -1405,6 +1570,9 @@
     <t xml:space="preserve">SAMN44743449</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350215</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST1BV</t>
   </si>
   <si>
@@ -1420,6 +1588,9 @@
     <t xml:space="preserve">SAMN44743450</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350214</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST1CSP</t>
   </si>
   <si>
@@ -1435,6 +1606,9 @@
     <t xml:space="preserve">SAMN44743451</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350213</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST1CSV</t>
   </si>
   <si>
@@ -1450,6 +1624,9 @@
     <t xml:space="preserve">SAMN44743452</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350212</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST2BP</t>
   </si>
   <si>
@@ -1465,6 +1642,9 @@
     <t xml:space="preserve">SAMN44743453</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350211</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST2BV</t>
   </si>
   <si>
@@ -1480,6 +1660,9 @@
     <t xml:space="preserve">SAMN44743454</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350210</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST2CSP</t>
   </si>
   <si>
@@ -1495,6 +1678,9 @@
     <t xml:space="preserve">SAMN44743455</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350208</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST2CSV</t>
   </si>
   <si>
@@ -1510,6 +1696,9 @@
     <t xml:space="preserve">SAMN44743456</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350207</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST3BP</t>
   </si>
   <si>
@@ -1525,6 +1714,9 @@
     <t xml:space="preserve">SAMN44743457</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350206</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST3BV</t>
   </si>
   <si>
@@ -1540,6 +1732,9 @@
     <t xml:space="preserve">SAMN44743458</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350205</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST3CSP</t>
   </si>
   <si>
@@ -1555,6 +1750,9 @@
     <t xml:space="preserve">SAMN44743459</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350204</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST3CSV</t>
   </si>
   <si>
@@ -1570,6 +1768,9 @@
     <t xml:space="preserve">SAMN44743460</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350203</t>
+  </si>
+  <si>
     <t xml:space="preserve">TI1B</t>
   </si>
   <si>
@@ -1591,6 +1792,9 @@
     <t xml:space="preserve">SAMN44743461</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350202</t>
+  </si>
+  <si>
     <t xml:space="preserve">TI1CS</t>
   </si>
   <si>
@@ -1606,6 +1810,9 @@
     <t xml:space="preserve">SAMN44743462</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350201</t>
+  </si>
+  <si>
     <t xml:space="preserve">TI2B</t>
   </si>
   <si>
@@ -1621,6 +1828,9 @@
     <t xml:space="preserve">SAMN44743463</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350200</t>
+  </si>
+  <si>
     <t xml:space="preserve">TI2CS</t>
   </si>
   <si>
@@ -1636,6 +1846,9 @@
     <t xml:space="preserve">SAMN44743464</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350199</t>
+  </si>
+  <si>
     <t xml:space="preserve">TI3B</t>
   </si>
   <si>
@@ -1651,6 +1864,9 @@
     <t xml:space="preserve">SAMN44743465</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350197</t>
+  </si>
+  <si>
     <t xml:space="preserve">TI3CS</t>
   </si>
   <si>
@@ -1666,6 +1882,9 @@
     <t xml:space="preserve">SAMN44743466</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350196</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN1B</t>
   </si>
   <si>
@@ -1681,6 +1900,9 @@
     <t xml:space="preserve">SAMN44743467</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350195</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN1CS</t>
   </si>
   <si>
@@ -1696,6 +1918,9 @@
     <t xml:space="preserve">SAMN44743468</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350194</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN2B</t>
   </si>
   <si>
@@ -1711,6 +1936,9 @@
     <t xml:space="preserve">SAMN44743469</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350193</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN2CS</t>
   </si>
   <si>
@@ -1726,6 +1954,9 @@
     <t xml:space="preserve">SAMN44743470</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350192</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN3B</t>
   </si>
   <si>
@@ -1741,6 +1972,9 @@
     <t xml:space="preserve">SAMN44743471</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350191</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN3CS</t>
   </si>
   <si>
@@ -1756,6 +1990,9 @@
     <t xml:space="preserve">SAMN44743472</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350190</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT1BP</t>
   </si>
   <si>
@@ -1771,6 +2008,9 @@
     <t xml:space="preserve">SAMN44743473</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350189</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT1BV</t>
   </si>
   <si>
@@ -1786,6 +2026,9 @@
     <t xml:space="preserve">SAMN44743474</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350188</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT1CSP</t>
   </si>
   <si>
@@ -1801,6 +2044,9 @@
     <t xml:space="preserve">SAMN44743475</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350186</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT1CSV</t>
   </si>
   <si>
@@ -1816,6 +2062,9 @@
     <t xml:space="preserve">SAMN44743476</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350185</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT2BP</t>
   </si>
   <si>
@@ -1831,6 +2080,9 @@
     <t xml:space="preserve">SAMN44743477</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350184</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT2BV</t>
   </si>
   <si>
@@ -1846,6 +2098,9 @@
     <t xml:space="preserve">SAMN44743478</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350183</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT2CSP</t>
   </si>
   <si>
@@ -1861,6 +2116,9 @@
     <t xml:space="preserve">SAMN44743479</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350182</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT2CSV</t>
   </si>
   <si>
@@ -1876,6 +2134,9 @@
     <t xml:space="preserve">SAMN44743480</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350181</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT3BP</t>
   </si>
   <si>
@@ -1891,6 +2152,9 @@
     <t xml:space="preserve">SAMN44743481</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350180</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT3BV</t>
   </si>
   <si>
@@ -1906,6 +2170,9 @@
     <t xml:space="preserve">SAMN44743482</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350179</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT3CSP</t>
   </si>
   <si>
@@ -1921,6 +2188,9 @@
     <t xml:space="preserve">SAMN44743483</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR31350178</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT3CSV</t>
   </si>
   <si>
@@ -1934,6 +2204,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAMN44743484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR31350177</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CS91"/>
+  <dimension ref="A1:CT91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CA1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CT2" activeCellId="0" sqref="CT2:CT91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2482,6 +2755,9 @@
       <c r="CS1" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="CT1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -2768,13 +3044,19 @@
       <c r="CR2" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="CS2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT2" s="0" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -2820,7 +3102,7 @@
         <v>106</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>100</v>
@@ -3046,21 +3328,27 @@
         <v>100</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CR3" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="CS3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="CT3" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -3106,7 +3394,7 @@
         <v>106</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>100</v>
@@ -3332,21 +3620,27 @@
         <v>100</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CR4" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="CS4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="CT4" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
@@ -3392,7 +3686,7 @@
         <v>106</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>100</v>
@@ -3618,21 +3912,27 @@
         <v>100</v>
       </c>
       <c r="CP5" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="CQ5" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="CR5" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="CS5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT5" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -3678,7 +3978,7 @@
         <v>106</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>100</v>
@@ -3904,21 +4204,27 @@
         <v>100</v>
       </c>
       <c r="CP6" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CQ6" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="CR6" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="CS6" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="CT6" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -3931,7 +4237,7 @@
         <v>101</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>102</v>
@@ -3952,22 +4258,22 @@
         <v>-117.20152</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>25</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4" t="n">
@@ -4191,21 +4497,27 @@
         <v>100</v>
       </c>
       <c r="CP7" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="CQ7" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="CR7" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="CS7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CT7" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -4218,7 +4530,7 @@
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>102</v>
@@ -4239,22 +4551,22 @@
         <v>-117.20152</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>25</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4" t="n">
@@ -4478,21 +4790,27 @@
         <v>100</v>
       </c>
       <c r="CP8" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="CQ8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="CR8" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="CS8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CT8" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -4505,7 +4823,7 @@
         <v>101</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>102</v>
@@ -4526,22 +4844,22 @@
         <v>-117.20122</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>26</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4" t="n">
@@ -4765,21 +5083,27 @@
         <v>100</v>
       </c>
       <c r="CP9" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="CQ9" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="CR9" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="CS9" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CT9" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -4792,7 +5116,7 @@
         <v>101</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>102</v>
@@ -4813,22 +5137,22 @@
         <v>-117.20122</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>26</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="n">
@@ -5052,21 +5376,27 @@
         <v>100</v>
       </c>
       <c r="CP10" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="CQ10" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="CR10" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="CS10" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="CT10" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -5079,7 +5409,7 @@
         <v>101</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>102</v>
@@ -5100,22 +5430,22 @@
         <v>-117.201601</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>27</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="n">
@@ -5339,21 +5669,27 @@
         <v>100</v>
       </c>
       <c r="CP11" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="CQ11" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="CR11" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
+      </c>
+      <c r="CS11" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="CT11" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
@@ -5366,7 +5702,7 @@
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>102</v>
@@ -5387,22 +5723,22 @@
         <v>-117.201601</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O12" s="7" t="n">
         <v>27</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="n">
@@ -5626,21 +5962,27 @@
         <v>100</v>
       </c>
       <c r="CP12" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="CQ12" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="CR12" s="0" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+      <c r="CS12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CT12" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
@@ -5653,7 +5995,7 @@
         <v>101</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>102</v>
@@ -5674,22 +6016,22 @@
         <v>-117.20146</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>19</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4" t="n">
@@ -5913,21 +6255,27 @@
         <v>100</v>
       </c>
       <c r="CP13" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="CQ13" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="CR13" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
+      </c>
+      <c r="CS13" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="CT13" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -5940,7 +6288,7 @@
         <v>101</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>102</v>
@@ -5961,22 +6309,22 @@
         <v>-117.20146</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>19</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4" t="n">
@@ -6200,21 +6548,27 @@
         <v>100</v>
       </c>
       <c r="CP14" s="3" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="CQ14" s="3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="CR14" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="CS14" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT14" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
@@ -6227,7 +6581,7 @@
         <v>101</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>102</v>
@@ -6248,22 +6602,22 @@
         <v>-117.20169</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O15" s="7" t="n">
         <v>20</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4" t="n">
@@ -6487,21 +6841,27 @@
         <v>100</v>
       </c>
       <c r="CP15" s="3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="CQ15" s="3" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="CR15" s="0" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="CS15" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="CT15" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
@@ -6514,7 +6874,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>102</v>
@@ -6535,22 +6895,22 @@
         <v>-117.20169</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O16" s="7" t="n">
         <v>20</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4" t="n">
@@ -6774,21 +7134,27 @@
         <v>100</v>
       </c>
       <c r="CP16" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="CQ16" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="CR16" s="0" t="s">
-        <v>192</v>
+        <v>207</v>
+      </c>
+      <c r="CS16" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="CT16" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -6801,7 +7167,7 @@
         <v>101</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>102</v>
@@ -6822,22 +7188,22 @@
         <v>-117.20152</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O17" s="7" t="n">
         <v>21</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4" t="n">
@@ -7061,21 +7427,27 @@
         <v>100</v>
       </c>
       <c r="CP17" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="CQ17" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="CR17" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
+      </c>
+      <c r="CS17" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="CT17" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
@@ -7088,7 +7460,7 @@
         <v>101</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>102</v>
@@ -7109,22 +7481,22 @@
         <v>-117.20152</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O18" s="7" t="n">
         <v>21</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4" t="n">
@@ -7348,21 +7720,27 @@
         <v>100</v>
       </c>
       <c r="CP18" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="CQ18" s="3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="CR18" s="0" t="s">
-        <v>202</v>
+        <v>219</v>
+      </c>
+      <c r="CS18" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="CT18" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -7375,7 +7753,7 @@
         <v>101</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>102</v>
@@ -7396,22 +7774,22 @@
         <v>-117.20169</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O19" s="7" t="n">
         <v>22</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4" t="n">
@@ -7635,21 +8013,27 @@
         <v>100</v>
       </c>
       <c r="CP19" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="CQ19" s="3" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="CR19" s="0" t="s">
-        <v>208</v>
+        <v>226</v>
+      </c>
+      <c r="CS19" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="CT19" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
@@ -7662,7 +8046,7 @@
         <v>101</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>102</v>
@@ -7683,22 +8067,22 @@
         <v>-117.20169</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O20" s="7" t="n">
         <v>22</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4" t="n">
@@ -7922,21 +8306,27 @@
         <v>100</v>
       </c>
       <c r="CP20" s="3" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="CQ20" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="CR20" s="0" t="s">
-        <v>213</v>
+        <v>232</v>
+      </c>
+      <c r="CS20" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="CT20" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
@@ -7949,7 +8339,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>102</v>
@@ -7970,22 +8360,22 @@
         <v>-117.20169</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O21" s="7" t="n">
         <v>22</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4" t="n">
@@ -8209,21 +8599,27 @@
         <v>100</v>
       </c>
       <c r="CP21" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="CQ21" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="CR21" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
+      </c>
+      <c r="CS21" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT21" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
@@ -8236,7 +8632,7 @@
         <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>102</v>
@@ -8257,22 +8653,22 @@
         <v>-117.20169</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>22</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4" t="n">
@@ -8496,21 +8892,27 @@
         <v>100</v>
       </c>
       <c r="CP22" s="3" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="CQ22" s="3" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="CR22" s="0" t="s">
-        <v>223</v>
+        <v>244</v>
+      </c>
+      <c r="CS22" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT22" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -8523,7 +8925,7 @@
         <v>101</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>102</v>
@@ -8544,22 +8946,22 @@
         <v>-117.20117</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O23" s="7" t="n">
         <v>23</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4" t="n">
@@ -8783,21 +9185,27 @@
         <v>100</v>
       </c>
       <c r="CP23" s="3" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="CQ23" s="3" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="CR23" s="0" t="s">
-        <v>228</v>
+        <v>250</v>
+      </c>
+      <c r="CS23" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="CT23" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
@@ -8810,7 +9218,7 @@
         <v>101</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>102</v>
@@ -8831,22 +9239,22 @@
         <v>-117.20117</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O24" s="7" t="n">
         <v>23</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4" t="n">
@@ -9070,21 +9478,27 @@
         <v>100</v>
       </c>
       <c r="CP24" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="CQ24" s="3" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="CR24" s="0" t="s">
-        <v>233</v>
+        <v>256</v>
+      </c>
+      <c r="CS24" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="CT24" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
@@ -9097,7 +9511,7 @@
         <v>101</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>102</v>
@@ -9118,22 +9532,22 @@
         <v>-117.20117</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O25" s="7" t="n">
         <v>23</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4" t="n">
@@ -9357,21 +9771,27 @@
         <v>100</v>
       </c>
       <c r="CP25" s="3" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="CQ25" s="3" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="CR25" s="0" t="s">
-        <v>238</v>
+        <v>262</v>
+      </c>
+      <c r="CS25" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="CT25" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
@@ -9384,7 +9804,7 @@
         <v>101</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>102</v>
@@ -9405,22 +9825,22 @@
         <v>-117.20117</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O26" s="7" t="n">
         <v>23</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4" t="n">
@@ -9644,21 +10064,27 @@
         <v>100</v>
       </c>
       <c r="CP26" s="3" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="CQ26" s="3" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="CR26" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
+      </c>
+      <c r="CS26" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="CT26" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -9671,7 +10097,7 @@
         <v>101</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>102</v>
@@ -9692,22 +10118,22 @@
         <v>-117.20134</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O27" s="7" t="n">
         <v>24</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4" t="n">
@@ -9931,21 +10357,27 @@
         <v>100</v>
       </c>
       <c r="CP27" s="3" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="CQ27" s="3" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="CR27" s="0" t="s">
-        <v>248</v>
+        <v>274</v>
+      </c>
+      <c r="CS27" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="CT27" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
@@ -9958,7 +10390,7 @@
         <v>101</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>102</v>
@@ -9979,22 +10411,22 @@
         <v>-117.20134</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O28" s="7" t="n">
         <v>24</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T28" s="4"/>
       <c r="U28" s="4" t="n">
@@ -10218,21 +10650,27 @@
         <v>100</v>
       </c>
       <c r="CP28" s="3" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="CQ28" s="3" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="CR28" s="0" t="s">
-        <v>253</v>
+        <v>280</v>
+      </c>
+      <c r="CS28" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="CT28" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
@@ -10245,7 +10683,7 @@
         <v>101</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>102</v>
@@ -10266,22 +10704,22 @@
         <v>-117.20134</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O29" s="7" t="n">
         <v>24</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4" t="n">
@@ -10505,21 +10943,27 @@
         <v>100</v>
       </c>
       <c r="CP29" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="CQ29" s="3" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="CR29" s="0" t="s">
-        <v>258</v>
+        <v>286</v>
+      </c>
+      <c r="CS29" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="CT29" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
@@ -10532,7 +10976,7 @@
         <v>101</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>102</v>
@@ -10553,22 +10997,22 @@
         <v>-117.20134</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O30" s="7" t="n">
         <v>24</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4" t="n">
@@ -10792,21 +11236,27 @@
         <v>100</v>
       </c>
       <c r="CP30" s="3" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="CQ30" s="3" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="CR30" s="0" t="s">
-        <v>263</v>
+        <v>292</v>
+      </c>
+      <c r="CS30" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="CT30" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -11078,21 +11528,27 @@
         <v>1</v>
       </c>
       <c r="CP31" s="3" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="CQ31" s="3" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="CR31" s="0" t="s">
-        <v>268</v>
+        <v>298</v>
+      </c>
+      <c r="CS31" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="CT31" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
@@ -11138,7 +11594,7 @@
         <v>100</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>100</v>
@@ -11364,21 +11820,27 @@
         <v>2</v>
       </c>
       <c r="CP32" s="3" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="CQ32" s="3" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="CR32" s="0" t="s">
-        <v>273</v>
+        <v>304</v>
+      </c>
+      <c r="CS32" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="CT32" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -11424,7 +11886,7 @@
         <v>100</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>100</v>
@@ -11650,21 +12112,27 @@
         <v>3</v>
       </c>
       <c r="CP33" s="3" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="CQ33" s="3" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="CR33" s="0" t="s">
-        <v>278</v>
+        <v>310</v>
+      </c>
+      <c r="CS33" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT33" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
@@ -11710,7 +12178,7 @@
         <v>100</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S34" s="7" t="s">
         <v>100</v>
@@ -11936,21 +12404,27 @@
         <v>4</v>
       </c>
       <c r="CP34" s="3" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="CQ34" s="3" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="CR34" s="0" t="s">
-        <v>283</v>
+        <v>316</v>
+      </c>
+      <c r="CS34" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="CT34" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
@@ -11996,7 +12470,7 @@
         <v>100</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>100</v>
@@ -12222,21 +12696,27 @@
         <v>5</v>
       </c>
       <c r="CP35" s="3" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="CQ35" s="3" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="CR35" s="0" t="s">
-        <v>288</v>
+        <v>322</v>
+      </c>
+      <c r="CS35" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="CT35" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
@@ -12508,21 +12988,27 @@
         <v>6</v>
       </c>
       <c r="CP36" s="3" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="CQ36" s="3" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="CR36" s="0" t="s">
-        <v>293</v>
+        <v>328</v>
+      </c>
+      <c r="CS36" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="CT36" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -12794,21 +13280,27 @@
         <v>7</v>
       </c>
       <c r="CP37" s="3" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="CQ37" s="3" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="CR37" s="0" t="s">
-        <v>298</v>
+        <v>334</v>
+      </c>
+      <c r="CS37" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="CT37" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
@@ -13080,21 +13572,27 @@
         <v>8</v>
       </c>
       <c r="CP38" s="3" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="CQ38" s="3" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="CR38" s="0" t="s">
-        <v>303</v>
+        <v>340</v>
+      </c>
+      <c r="CS38" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="CT38" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
@@ -13366,21 +13864,27 @@
         <v>9</v>
       </c>
       <c r="CP39" s="3" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="CQ39" s="3" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="CR39" s="0" t="s">
-        <v>308</v>
+        <v>346</v>
+      </c>
+      <c r="CS39" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="CT39" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
@@ -13426,7 +13930,7 @@
         <v>100</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S40" s="7" t="s">
         <v>100</v>
@@ -13652,21 +14156,27 @@
         <v>10</v>
       </c>
       <c r="CP40" s="3" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="CQ40" s="3" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="CR40" s="0" t="s">
-        <v>313</v>
+        <v>352</v>
+      </c>
+      <c r="CS40" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="CT40" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -13712,7 +14222,7 @@
         <v>100</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>100</v>
@@ -13938,21 +14448,27 @@
         <v>11</v>
       </c>
       <c r="CP41" s="3" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="CQ41" s="3" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="CR41" s="0" t="s">
-        <v>318</v>
+        <v>358</v>
+      </c>
+      <c r="CS41" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="CT41" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
@@ -13998,7 +14514,7 @@
         <v>100</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S42" s="7" t="s">
         <v>100</v>
@@ -14224,21 +14740,27 @@
         <v>12</v>
       </c>
       <c r="CP42" s="3" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="CQ42" s="3" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="CR42" s="0" t="s">
-        <v>323</v>
+        <v>364</v>
+      </c>
+      <c r="CS42" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="CT42" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
@@ -14284,7 +14806,7 @@
         <v>100</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>100</v>
@@ -14510,21 +15032,27 @@
         <v>13</v>
       </c>
       <c r="CP43" s="3" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="CQ43" s="3" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="CR43" s="0" t="s">
-        <v>328</v>
+        <v>370</v>
+      </c>
+      <c r="CS43" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="CT43" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
@@ -14537,7 +15065,7 @@
         <v>101</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>102</v>
@@ -14558,22 +15086,22 @@
         <v>-117.2299</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O44" s="7" t="n">
         <v>7</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R44" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T44" s="4"/>
       <c r="U44" s="4" t="n">
@@ -14797,21 +15325,27 @@
         <v>100</v>
       </c>
       <c r="CP44" s="3" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="CQ44" s="3" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="CR44" s="0" t="s">
-        <v>335</v>
+        <v>378</v>
+      </c>
+      <c r="CS44" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="CT44" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
@@ -14824,7 +15358,7 @@
         <v>101</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>102</v>
@@ -14845,22 +15379,22 @@
         <v>-117.2299</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O45" s="7" t="n">
         <v>7</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T45" s="4"/>
       <c r="U45" s="4" t="n">
@@ -15084,21 +15618,27 @@
         <v>100</v>
       </c>
       <c r="CP45" s="3" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="CQ45" s="3" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="CR45" s="0" t="s">
-        <v>340</v>
+        <v>384</v>
+      </c>
+      <c r="CS45" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="CT45" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
@@ -15111,7 +15651,7 @@
         <v>101</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>102</v>
@@ -15132,22 +15672,22 @@
         <v>-117.22965</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O46" s="7" t="n">
         <v>8</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T46" s="4"/>
       <c r="U46" s="4" t="n">
@@ -15371,21 +15911,27 @@
         <v>100</v>
       </c>
       <c r="CP46" s="3" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="CQ46" s="3" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="CR46" s="0" t="s">
-        <v>345</v>
+        <v>390</v>
+      </c>
+      <c r="CS46" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="CT46" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
@@ -15398,7 +15944,7 @@
         <v>101</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>102</v>
@@ -15419,22 +15965,22 @@
         <v>-117.22965</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O47" s="7" t="n">
         <v>8</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q47" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T47" s="4"/>
       <c r="U47" s="4" t="n">
@@ -15658,21 +16204,27 @@
         <v>100</v>
       </c>
       <c r="CP47" s="3" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="CQ47" s="3" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="CR47" s="0" t="s">
-        <v>350</v>
+        <v>396</v>
+      </c>
+      <c r="CS47" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="CT47" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
@@ -15685,7 +16237,7 @@
         <v>101</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>102</v>
@@ -15706,22 +16258,22 @@
         <v>-117.22972</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O48" s="7" t="n">
         <v>9</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T48" s="4"/>
       <c r="U48" s="4" t="n">
@@ -15945,21 +16497,27 @@
         <v>100</v>
       </c>
       <c r="CP48" s="3" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="CQ48" s="3" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="CR48" s="0" t="s">
-        <v>355</v>
+        <v>402</v>
+      </c>
+      <c r="CS48" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT48" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
@@ -15972,7 +16530,7 @@
         <v>101</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>102</v>
@@ -15993,22 +16551,22 @@
         <v>-117.22972</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O49" s="7" t="n">
         <v>9</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q49" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T49" s="4"/>
       <c r="U49" s="4" t="n">
@@ -16232,21 +16790,27 @@
         <v>100</v>
       </c>
       <c r="CP49" s="3" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="CQ49" s="3" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="CR49" s="0" t="s">
-        <v>360</v>
+        <v>408</v>
+      </c>
+      <c r="CS49" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="CT49" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
@@ -16259,7 +16823,7 @@
         <v>101</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>102</v>
@@ -16280,22 +16844,22 @@
         <v>-117.22958</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O50" s="7" t="n">
         <v>1</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T50" s="4"/>
       <c r="U50" s="4" t="n">
@@ -16519,21 +17083,27 @@
         <v>100</v>
       </c>
       <c r="CP50" s="3" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="CQ50" s="3" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="CR50" s="0" t="s">
-        <v>365</v>
+        <v>414</v>
+      </c>
+      <c r="CS50" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="CT50" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
@@ -16546,7 +17116,7 @@
         <v>101</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>102</v>
@@ -16567,22 +17137,22 @@
         <v>-117.22958</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O51" s="7" t="n">
         <v>1</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T51" s="4"/>
       <c r="U51" s="4" t="n">
@@ -16806,21 +17376,27 @@
         <v>100</v>
       </c>
       <c r="CP51" s="3" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="CQ51" s="3" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="CR51" s="0" t="s">
-        <v>370</v>
+        <v>420</v>
+      </c>
+      <c r="CS51" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="CT51" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
@@ -16833,7 +17409,7 @@
         <v>101</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>102</v>
@@ -16854,22 +17430,22 @@
         <v>-117.22963</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O52" s="7" t="n">
         <v>2</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T52" s="4"/>
       <c r="U52" s="4" t="n">
@@ -17093,21 +17669,27 @@
         <v>100</v>
       </c>
       <c r="CP52" s="3" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="CQ52" s="3" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="CR52" s="0" t="s">
-        <v>375</v>
+        <v>426</v>
+      </c>
+      <c r="CS52" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="CT52" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
@@ -17120,7 +17702,7 @@
         <v>101</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>102</v>
@@ -17141,22 +17723,22 @@
         <v>-117.22963</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O53" s="7" t="n">
         <v>2</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T53" s="4"/>
       <c r="U53" s="4" t="n">
@@ -17380,21 +17962,27 @@
         <v>100</v>
       </c>
       <c r="CP53" s="3" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="CQ53" s="3" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="CR53" s="0" t="s">
-        <v>380</v>
+        <v>432</v>
+      </c>
+      <c r="CS53" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="CT53" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
@@ -17407,7 +17995,7 @@
         <v>101</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>102</v>
@@ -17428,22 +18016,22 @@
         <v>-117.229546</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O54" s="7" t="n">
         <v>3</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T54" s="4"/>
       <c r="U54" s="4" t="n">
@@ -17667,21 +18255,27 @@
         <v>100</v>
       </c>
       <c r="CP54" s="3" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="CQ54" s="3" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="CR54" s="0" t="s">
-        <v>385</v>
+        <v>438</v>
+      </c>
+      <c r="CS54" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="CT54" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
@@ -17694,7 +18288,7 @@
         <v>101</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>102</v>
@@ -17715,22 +18309,22 @@
         <v>-117.229546</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O55" s="7" t="n">
         <v>3</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T55" s="4"/>
       <c r="U55" s="4" t="n">
@@ -17954,21 +18548,27 @@
         <v>100</v>
       </c>
       <c r="CP55" s="3" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="CQ55" s="3" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="CR55" s="0" t="s">
-        <v>390</v>
+        <v>444</v>
+      </c>
+      <c r="CS55" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="CT55" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
@@ -17981,7 +18581,7 @@
         <v>101</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>102</v>
@@ -18002,22 +18602,22 @@
         <v>-117.22967</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O56" s="7" t="n">
         <v>4</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R56" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T56" s="4"/>
       <c r="U56" s="4" t="n">
@@ -18241,21 +18841,27 @@
         <v>100</v>
       </c>
       <c r="CP56" s="3" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="CQ56" s="3" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="CR56" s="0" t="s">
-        <v>395</v>
+        <v>450</v>
+      </c>
+      <c r="CS56" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="CT56" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
@@ -18268,7 +18874,7 @@
         <v>101</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>102</v>
@@ -18289,22 +18895,22 @@
         <v>-117.22967</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O57" s="7" t="n">
         <v>4</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R57" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T57" s="4"/>
       <c r="U57" s="4" t="n">
@@ -18528,21 +19134,27 @@
         <v>100</v>
       </c>
       <c r="CP57" s="3" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="CQ57" s="3" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="CR57" s="0" t="s">
-        <v>400</v>
+        <v>456</v>
+      </c>
+      <c r="CS57" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="CT57" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
@@ -18555,7 +19167,7 @@
         <v>101</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>102</v>
@@ -18576,22 +19188,22 @@
         <v>-117.22967</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O58" s="7" t="n">
         <v>4</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R58" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T58" s="4"/>
       <c r="U58" s="4" t="n">
@@ -18815,21 +19427,27 @@
         <v>100</v>
       </c>
       <c r="CP58" s="3" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="CQ58" s="3" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="CR58" s="0" t="s">
-        <v>405</v>
+        <v>462</v>
+      </c>
+      <c r="CS58" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="CT58" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
@@ -18842,7 +19460,7 @@
         <v>101</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>102</v>
@@ -18863,22 +19481,22 @@
         <v>-117.22967</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O59" s="7" t="n">
         <v>4</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R59" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T59" s="4"/>
       <c r="U59" s="4" t="n">
@@ -19102,21 +19720,27 @@
         <v>100</v>
       </c>
       <c r="CP59" s="3" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="CQ59" s="3" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="CR59" s="0" t="s">
-        <v>410</v>
+        <v>468</v>
+      </c>
+      <c r="CS59" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="CT59" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
@@ -19129,7 +19753,7 @@
         <v>101</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>102</v>
@@ -19150,22 +19774,22 @@
         <v>-117.22981</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O60" s="7" t="n">
         <v>5</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T60" s="4"/>
       <c r="U60" s="4" t="n">
@@ -19389,21 +20013,27 @@
         <v>100</v>
       </c>
       <c r="CP60" s="3" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="CQ60" s="3" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="CR60" s="0" t="s">
-        <v>415</v>
+        <v>474</v>
+      </c>
+      <c r="CS60" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="CT60" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
@@ -19416,7 +20046,7 @@
         <v>101</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>102</v>
@@ -19437,22 +20067,22 @@
         <v>-117.22981</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O61" s="7" t="n">
         <v>5</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T61" s="4"/>
       <c r="U61" s="4" t="n">
@@ -19676,21 +20306,27 @@
         <v>100</v>
       </c>
       <c r="CP61" s="3" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="CQ61" s="3" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="CR61" s="0" t="s">
-        <v>420</v>
+        <v>480</v>
+      </c>
+      <c r="CS61" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="CT61" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
@@ -19703,7 +20339,7 @@
         <v>101</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>102</v>
@@ -19724,22 +20360,22 @@
         <v>-117.22981</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O62" s="7" t="n">
         <v>5</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T62" s="4"/>
       <c r="U62" s="4" t="n">
@@ -19963,21 +20599,27 @@
         <v>100</v>
       </c>
       <c r="CP62" s="3" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="CQ62" s="3" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="CR62" s="0" t="s">
-        <v>425</v>
+        <v>486</v>
+      </c>
+      <c r="CS62" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="CT62" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
@@ -19990,7 +20632,7 @@
         <v>101</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>102</v>
@@ -20011,22 +20653,22 @@
         <v>-117.22981</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O63" s="7" t="n">
         <v>5</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q63" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S63" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T63" s="4"/>
       <c r="U63" s="4" t="n">
@@ -20250,21 +20892,27 @@
         <v>100</v>
       </c>
       <c r="CP63" s="3" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="CQ63" s="3" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="CR63" s="0" t="s">
-        <v>430</v>
+        <v>492</v>
+      </c>
+      <c r="CS63" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="CT63" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
@@ -20277,7 +20925,7 @@
         <v>101</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>102</v>
@@ -20298,22 +20946,22 @@
         <v>-117.22956</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O64" s="7" t="n">
         <v>6</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S64" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T64" s="4"/>
       <c r="U64" s="4" t="n">
@@ -20537,21 +21185,27 @@
         <v>100</v>
       </c>
       <c r="CP64" s="3" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="CQ64" s="3" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="CR64" s="0" t="s">
-        <v>435</v>
+        <v>498</v>
+      </c>
+      <c r="CS64" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="CT64" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
@@ -20564,7 +21218,7 @@
         <v>101</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>102</v>
@@ -20585,22 +21239,22 @@
         <v>-117.22956</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O65" s="7" t="n">
         <v>6</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T65" s="4"/>
       <c r="U65" s="4" t="n">
@@ -20824,21 +21478,27 @@
         <v>100</v>
       </c>
       <c r="CP65" s="3" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="CQ65" s="3" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="CR65" s="0" t="s">
-        <v>440</v>
+        <v>504</v>
+      </c>
+      <c r="CS65" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="CT65" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
@@ -20851,7 +21511,7 @@
         <v>101</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>102</v>
@@ -20872,22 +21532,22 @@
         <v>-117.22956</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O66" s="7" t="n">
         <v>6</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T66" s="4"/>
       <c r="U66" s="4" t="n">
@@ -21111,21 +21771,27 @@
         <v>100</v>
       </c>
       <c r="CP66" s="3" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="CQ66" s="3" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="CR66" s="0" t="s">
-        <v>445</v>
+        <v>510</v>
+      </c>
+      <c r="CS66" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="CT66" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
@@ -21138,7 +21804,7 @@
         <v>101</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>102</v>
@@ -21159,22 +21825,22 @@
         <v>-117.22956</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O67" s="7" t="n">
         <v>6</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q67" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S67" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T67" s="4"/>
       <c r="U67" s="4" t="n">
@@ -21398,21 +22064,27 @@
         <v>100</v>
       </c>
       <c r="CP67" s="3" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="CQ67" s="3" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="CR67" s="0" t="s">
-        <v>450</v>
+        <v>516</v>
+      </c>
+      <c r="CS67" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="CT67" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
@@ -21425,7 +22097,7 @@
         <v>101</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>102</v>
@@ -21446,22 +22118,22 @@
         <v>-117.30292</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O68" s="7" t="n">
         <v>16</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R68" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T68" s="4"/>
       <c r="U68" s="4" t="n">
@@ -21685,21 +22357,27 @@
         <v>100</v>
       </c>
       <c r="CP68" s="3" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="CQ68" s="3" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="CR68" s="0" t="s">
-        <v>457</v>
+        <v>524</v>
+      </c>
+      <c r="CS68" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="CT68" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
@@ -21712,7 +22390,7 @@
         <v>101</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>102</v>
@@ -21733,22 +22411,22 @@
         <v>-117.30292</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O69" s="7" t="n">
         <v>16</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R69" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T69" s="4"/>
       <c r="U69" s="4" t="n">
@@ -21972,21 +22650,27 @@
         <v>100</v>
       </c>
       <c r="CP69" s="3" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="CQ69" s="3" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="CR69" s="0" t="s">
-        <v>462</v>
+        <v>530</v>
+      </c>
+      <c r="CS69" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="CT69" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
@@ -21999,7 +22683,7 @@
         <v>101</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>102</v>
@@ -22020,22 +22704,22 @@
         <v>-117.30284</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O70" s="7" t="n">
         <v>17</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S70" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T70" s="4"/>
       <c r="U70" s="4" t="n">
@@ -22259,21 +22943,27 @@
         <v>100</v>
       </c>
       <c r="CP70" s="3" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="CQ70" s="3" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="CR70" s="0" t="s">
-        <v>467</v>
+        <v>536</v>
+      </c>
+      <c r="CS70" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="CT70" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
@@ -22286,7 +22976,7 @@
         <v>101</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>102</v>
@@ -22307,22 +22997,22 @@
         <v>-117.30284</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O71" s="7" t="n">
         <v>17</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q71" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S71" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R71" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S71" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T71" s="4"/>
       <c r="U71" s="4" t="n">
@@ -22546,21 +23236,27 @@
         <v>100</v>
       </c>
       <c r="CP71" s="3" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="CQ71" s="3" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="CR71" s="0" t="s">
-        <v>472</v>
+        <v>542</v>
+      </c>
+      <c r="CS71" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="CT71" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
@@ -22573,7 +23269,7 @@
         <v>101</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>102</v>
@@ -22594,22 +23290,22 @@
         <v>-117.30259</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O72" s="7" t="n">
         <v>18</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S72" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T72" s="4"/>
       <c r="U72" s="4" t="n">
@@ -22833,21 +23529,27 @@
         <v>100</v>
       </c>
       <c r="CP72" s="3" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="CQ72" s="3" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="CR72" s="0" t="s">
-        <v>477</v>
+        <v>548</v>
+      </c>
+      <c r="CS72" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="CT72" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
@@ -22860,7 +23562,7 @@
         <v>101</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>102</v>
@@ -22881,22 +23583,22 @@
         <v>-117.30259</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O73" s="7" t="n">
         <v>18</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q73" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S73" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R73" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S73" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T73" s="4"/>
       <c r="U73" s="4" t="n">
@@ -23120,21 +23822,27 @@
         <v>100</v>
       </c>
       <c r="CP73" s="3" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="CQ73" s="3" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="CR73" s="0" t="s">
-        <v>482</v>
+        <v>554</v>
+      </c>
+      <c r="CS73" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="CT73" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
@@ -23147,7 +23855,7 @@
         <v>101</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>102</v>
@@ -23168,22 +23876,22 @@
         <v>-117.30286</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O74" s="7" t="n">
         <v>10</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R74" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S74" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T74" s="4"/>
       <c r="U74" s="4" t="n">
@@ -23407,21 +24115,27 @@
         <v>100</v>
       </c>
       <c r="CP74" s="3" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="CQ74" s="3" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="CR74" s="0" t="s">
-        <v>487</v>
+        <v>560</v>
+      </c>
+      <c r="CS74" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="CT74" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
@@ -23434,7 +24148,7 @@
         <v>101</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>102</v>
@@ -23455,22 +24169,22 @@
         <v>-117.30286</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O75" s="7" t="n">
         <v>10</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R75" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T75" s="4"/>
       <c r="U75" s="4" t="n">
@@ -23694,21 +24408,27 @@
         <v>100</v>
       </c>
       <c r="CP75" s="3" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="CQ75" s="3" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="CR75" s="0" t="s">
-        <v>492</v>
+        <v>566</v>
+      </c>
+      <c r="CS75" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="CT75" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
@@ -23721,7 +24441,7 @@
         <v>101</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>102</v>
@@ -23742,22 +24462,22 @@
         <v>-117.30272</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O76" s="7" t="n">
         <v>11</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T76" s="4"/>
       <c r="U76" s="4" t="n">
@@ -23981,21 +24701,27 @@
         <v>100</v>
       </c>
       <c r="CP76" s="3" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="CQ76" s="3" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="CR76" s="0" t="s">
-        <v>497</v>
+        <v>572</v>
+      </c>
+      <c r="CS76" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="CT76" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
@@ -24008,7 +24734,7 @@
         <v>101</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>102</v>
@@ -24029,22 +24755,22 @@
         <v>-117.30272</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O77" s="7" t="n">
         <v>11</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T77" s="4"/>
       <c r="U77" s="4" t="n">
@@ -24268,21 +24994,27 @@
         <v>100</v>
       </c>
       <c r="CP77" s="3" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="CQ77" s="3" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="CR77" s="0" t="s">
-        <v>502</v>
+        <v>578</v>
+      </c>
+      <c r="CS77" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="CT77" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>503</v>
+        <v>580</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>504</v>
+        <v>581</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
@@ -24295,7 +25027,7 @@
         <v>101</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>102</v>
@@ -24316,22 +25048,22 @@
         <v>-117.30257</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O78" s="7" t="n">
         <v>12</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T78" s="4"/>
       <c r="U78" s="4" t="n">
@@ -24555,21 +25287,27 @@
         <v>100</v>
       </c>
       <c r="CP78" s="3" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="CQ78" s="3" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="CR78" s="0" t="s">
-        <v>507</v>
+        <v>584</v>
+      </c>
+      <c r="CS78" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="CT78" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
@@ -24582,7 +25320,7 @@
         <v>101</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>102</v>
@@ -24603,22 +25341,22 @@
         <v>-117.30257</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O79" s="7" t="n">
         <v>12</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T79" s="4"/>
       <c r="U79" s="4" t="n">
@@ -24842,21 +25580,27 @@
         <v>100</v>
       </c>
       <c r="CP79" s="3" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="CQ79" s="3" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="CR79" s="0" t="s">
-        <v>512</v>
+        <v>590</v>
+      </c>
+      <c r="CS79" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="CT79" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
@@ -24869,7 +25613,7 @@
         <v>101</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>102</v>
@@ -24890,22 +25634,22 @@
         <v>-117.30268</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O80" s="7" t="n">
         <v>13</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R80" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S80" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T80" s="4"/>
       <c r="U80" s="4" t="n">
@@ -25129,21 +25873,27 @@
         <v>100</v>
       </c>
       <c r="CP80" s="3" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="CQ80" s="3" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="CR80" s="0" t="s">
-        <v>517</v>
+        <v>596</v>
+      </c>
+      <c r="CS80" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="CT80" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
@@ -25156,7 +25906,7 @@
         <v>101</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>102</v>
@@ -25177,22 +25927,22 @@
         <v>-117.30268</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O81" s="7" t="n">
         <v>13</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R81" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S81" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T81" s="4"/>
       <c r="U81" s="4" t="n">
@@ -25416,21 +26166,27 @@
         <v>100</v>
       </c>
       <c r="CP81" s="3" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="CQ81" s="3" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="CR81" s="0" t="s">
-        <v>522</v>
+        <v>602</v>
+      </c>
+      <c r="CS81" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="CT81" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>523</v>
+        <v>604</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>524</v>
+        <v>605</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
@@ -25443,7 +26199,7 @@
         <v>101</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>102</v>
@@ -25464,22 +26220,22 @@
         <v>-117.30268</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O82" s="7" t="n">
         <v>13</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R82" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S82" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T82" s="4"/>
       <c r="U82" s="4" t="n">
@@ -25703,21 +26459,27 @@
         <v>100</v>
       </c>
       <c r="CP82" s="3" t="s">
-        <v>525</v>
+        <v>606</v>
       </c>
       <c r="CQ82" s="3" t="s">
-        <v>526</v>
+        <v>607</v>
       </c>
       <c r="CR82" s="0" t="s">
-        <v>527</v>
+        <v>608</v>
+      </c>
+      <c r="CS82" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="CT82" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
@@ -25730,7 +26492,7 @@
         <v>101</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>102</v>
@@ -25751,22 +26513,22 @@
         <v>-117.30268</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O83" s="7" t="n">
         <v>13</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R83" s="4" t="s">
         <v>107</v>
       </c>
       <c r="S83" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T83" s="4"/>
       <c r="U83" s="4" t="n">
@@ -25990,21 +26752,27 @@
         <v>100</v>
       </c>
       <c r="CP83" s="3" t="s">
-        <v>530</v>
+        <v>612</v>
       </c>
       <c r="CQ83" s="3" t="s">
-        <v>531</v>
+        <v>613</v>
       </c>
       <c r="CR83" s="0" t="s">
-        <v>532</v>
+        <v>614</v>
+      </c>
+      <c r="CS83" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="CT83" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>534</v>
+        <v>617</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
@@ -26017,7 +26785,7 @@
         <v>101</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>102</v>
@@ -26038,22 +26806,22 @@
         <v>-117.30239</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O84" s="7" t="n">
         <v>14</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S84" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T84" s="4"/>
       <c r="U84" s="4" t="n">
@@ -26277,21 +27045,27 @@
         <v>100</v>
       </c>
       <c r="CP84" s="3" t="s">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="CQ84" s="3" t="s">
-        <v>536</v>
+        <v>619</v>
       </c>
       <c r="CR84" s="0" t="s">
-        <v>537</v>
+        <v>620</v>
+      </c>
+      <c r="CS84" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="CT84" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>538</v>
+        <v>622</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
@@ -26304,7 +27078,7 @@
         <v>101</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>102</v>
@@ -26325,22 +27099,22 @@
         <v>-117.30239</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O85" s="7" t="n">
         <v>14</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S85" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T85" s="4"/>
       <c r="U85" s="4" t="n">
@@ -26564,21 +27338,27 @@
         <v>100</v>
       </c>
       <c r="CP85" s="3" t="s">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="CQ85" s="3" t="s">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="CR85" s="0" t="s">
-        <v>542</v>
+        <v>626</v>
+      </c>
+      <c r="CS85" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="CT85" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>543</v>
+        <v>628</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>544</v>
+        <v>629</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
@@ -26591,7 +27371,7 @@
         <v>101</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>102</v>
@@ -26612,22 +27392,22 @@
         <v>-117.30239</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O86" s="7" t="n">
         <v>14</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T86" s="4"/>
       <c r="U86" s="4" t="n">
@@ -26851,21 +27631,27 @@
         <v>100</v>
       </c>
       <c r="CP86" s="3" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="CQ86" s="3" t="s">
-        <v>546</v>
+        <v>631</v>
       </c>
       <c r="CR86" s="0" t="s">
-        <v>547</v>
+        <v>632</v>
+      </c>
+      <c r="CS86" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="CT86" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>548</v>
+        <v>634</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>549</v>
+        <v>635</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
@@ -26878,7 +27664,7 @@
         <v>101</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>102</v>
@@ -26899,22 +27685,22 @@
         <v>-117.30239</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O87" s="7" t="n">
         <v>14</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q87" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S87" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R87" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S87" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T87" s="4"/>
       <c r="U87" s="4" t="n">
@@ -27138,21 +27924,27 @@
         <v>100</v>
       </c>
       <c r="CP87" s="3" t="s">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="CQ87" s="3" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="CR87" s="0" t="s">
-        <v>552</v>
+        <v>638</v>
+      </c>
+      <c r="CS87" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="CT87" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>553</v>
+        <v>640</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>554</v>
+        <v>641</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
@@ -27165,7 +27957,7 @@
         <v>101</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>102</v>
@@ -27186,22 +27978,22 @@
         <v>-117.3029</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O88" s="7" t="n">
         <v>15</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T88" s="4"/>
       <c r="U88" s="4" t="n">
@@ -27425,21 +28217,27 @@
         <v>100</v>
       </c>
       <c r="CP88" s="3" t="s">
-        <v>555</v>
+        <v>642</v>
       </c>
       <c r="CQ88" s="3" t="s">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="CR88" s="0" t="s">
-        <v>557</v>
+        <v>644</v>
+      </c>
+      <c r="CS88" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="CT88" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>558</v>
+        <v>646</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>559</v>
+        <v>647</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
@@ -27452,7 +28250,7 @@
         <v>101</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>102</v>
@@ -27473,22 +28271,22 @@
         <v>-117.3029</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O89" s="7" t="n">
         <v>15</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="T89" s="4"/>
       <c r="U89" s="4" t="n">
@@ -27712,21 +28510,27 @@
         <v>100</v>
       </c>
       <c r="CP89" s="3" t="s">
-        <v>560</v>
+        <v>648</v>
       </c>
       <c r="CQ89" s="3" t="s">
-        <v>561</v>
+        <v>649</v>
       </c>
       <c r="CR89" s="0" t="s">
-        <v>562</v>
+        <v>650</v>
+      </c>
+      <c r="CS89" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="CT89" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>563</v>
+        <v>652</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>564</v>
+        <v>653</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
@@ -27739,7 +28543,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>102</v>
@@ -27760,22 +28564,22 @@
         <v>-117.3029</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O90" s="7" t="n">
         <v>15</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S90" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T90" s="4"/>
       <c r="U90" s="4" t="n">
@@ -27999,21 +28803,27 @@
         <v>100</v>
       </c>
       <c r="CP90" s="3" t="s">
-        <v>565</v>
+        <v>654</v>
       </c>
       <c r="CQ90" s="3" t="s">
-        <v>566</v>
+        <v>655</v>
       </c>
       <c r="CR90" s="0" t="s">
-        <v>567</v>
+        <v>656</v>
+      </c>
+      <c r="CS90" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="CT90" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>568</v>
+        <v>658</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>569</v>
+        <v>659</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
@@ -28026,7 +28836,7 @@
         <v>101</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>102</v>
@@ -28047,22 +28857,22 @@
         <v>-117.3029</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="O91" s="7" t="n">
         <v>15</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S91" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="R91" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S91" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="T91" s="4"/>
       <c r="U91" s="4" t="n">
@@ -28286,13 +29096,19 @@
         <v>100</v>
       </c>
       <c r="CP91" s="3" t="s">
-        <v>570</v>
+        <v>660</v>
       </c>
       <c r="CQ91" s="3" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="CR91" s="0" t="s">
-        <v>572</v>
+        <v>662</v>
+      </c>
+      <c r="CS91" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="CT91" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
